--- a/formato_carga_planilla.xlsx
+++ b/formato_carga_planilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INCOE\Documents\GitHub\INTRACOE_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A16DB13-D22A-4474-9604-E163186B768A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D86214F-98E7-42D5-80DA-1B6173A044D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C18:C19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,40 +403,40 @@
         <v>14.76</v>
       </c>
       <c r="F1">
-        <v>25</v>
+        <v>25.25</v>
       </c>
       <c r="G1">
-        <v>25</v>
+        <v>25.22</v>
       </c>
       <c r="H1">
-        <v>25</v>
+        <v>25.26</v>
       </c>
       <c r="I1">
-        <v>25</v>
+        <v>12.25</v>
       </c>
       <c r="J1">
-        <v>25</v>
+        <v>12.25</v>
       </c>
       <c r="K1">
-        <v>125</v>
+        <v>13.25</v>
       </c>
       <c r="L1">
-        <v>0</v>
+        <v>23.25</v>
       </c>
       <c r="M1">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="N1">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="O1">
-        <v>0</v>
+        <v>125.25</v>
       </c>
       <c r="P1">
         <v>450</v>
       </c>
       <c r="Q1">
-        <v>325</v>
+        <v>325.64999999999998</v>
       </c>
       <c r="T1" s="1"/>
     </row>
